--- a/biology/Zoologie/Ephippiger/Ephippiger.xlsx
+++ b/biology/Zoologie/Ephippiger/Ephippiger.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ephippiger  est un genre d'orthoptères de la famille des Tettigoniidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre se distingue par son pronotum en forme de selle, parfois très relevé au niveau de la métazone, à l'arrière du sillon typique. L'arrière de la tête est, quant à lui, parfois marqué de noir[1]. Attention donc à ne pas les confondre avec les Barbitistes, dont le pronotum est légèrement arrondi. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre se distingue par son pronotum en forme de selle, parfois très relevé au niveau de la métazone, à l'arrière du sillon typique. L'arrière de la tête est, quant à lui, parfois marqué de noir. Attention donc à ne pas les confondre avec les Barbitistes, dont le pronotum est légèrement arrondi. 
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces de ce genre se rencontrent en Europe et en Somalie.
 </t>
@@ -573,9 +589,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Orthoptera Species File (28 mars 2010)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Orthoptera Species File (28 mars 2010) :
 Ephippiger apulus (Ramme, 1933)
 Ephippiger bormansi Brunner von Wattenwyl, 1882
 Ephippiger camillae Fontana &amp; Massa, 2000
@@ -619,7 +637,9 @@
           <t>Référence</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">(de) Berthold, 1827 : Latreille's Naturliche Familien des Thierreichs / aus dem Franzosischen, mit Anmerkungen und Zusätzen, von Arnold Adolph Berthold (texte original).
 Sur les autres projets Wikimedia :
